--- a/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem2/correct_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem2/correct_predictions.xlsx
@@ -467,97 +467,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Your palm is too close to the aircraft Please step farther away .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Your palm is too close to the aircraft</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Your palm is too close to the aircraft Please step farther away .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Please step farther away</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
+          <t>RTK Base Station Data Not Received Please make sure base station antenna is connected to the correct port .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -566,72 +566,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received Please make sure base station antenna is connected to the correct port .</t>
+          <t>Warning: Critically low battery Please change the battery .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Please make sure base station antenna is connected to the correct port</t>
+          <t>Warning: Critically low battery</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6-17</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Warning: Critically low battery Please change the battery .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Please change the battery</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Battery power low Check battery status and charge or warm up battery .</t>
+          <t>Vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Check battery status and charge or warm up battery</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
+          <t>Battery power low Check battery status and charge or warm up battery .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Get Closer and retry</t>
+          <t>Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,21 +707,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vision sensor error Contact DJI Support for assistance .</t>
+          <t>Your aircraft has entered a Warning Zone (Class D) Please fly with caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,51 +737,51 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery Please change the battery .</t>
+          <t>Cannot track subject Subject too Small Get Closer and retry .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery</t>
+          <t>Get Closer and retry</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery Please change the battery .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Please change the battery</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,51 +797,51 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft Please step farther away .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft Please step farther away .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Please step farther away</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Error: Course angle control error Please ensure the propellers are installed on the correct motors .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Please ensure the propellers are installed on the correct motors</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -887,21 +887,21 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>Aircraft in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>5-12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Error: Course angle control error Please ensure the propellers are installed on the correct motors .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5-12</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -951,27 +951,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
